--- a/2.Preprocesamiento/Dataset_depresivo_semiLimpio.xlsx
+++ b/2.Preprocesamiento/Dataset_depresivo_semiLimpio.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario iTC\Documents\GitHub\Identificacion_Depresion_Ecuador\2.Preprocesamiento\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6657" uniqueCount="3945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6673" uniqueCount="3955">
   <si>
     <t>id</t>
   </si>
@@ -11854,6 +11854,36 @@
   </si>
   <si>
     <t>-0.653327965519664,-78.58609080904333,27.938880788174096km</t>
+  </si>
+  <si>
+    <t>17:56:32</t>
+  </si>
+  <si>
+    <t>gracias a dios tengo a lizzie y al neuryl para calmar mi ansiedad</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>22:28:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoy estoy escribiendo porque tengo ansiedad el pecho me aprieta quiero llorar necesito que sea viernes y tener mas de aciertos cara_de_por_favor dos_corazones </t>
+  </si>
+  <si>
+    <t>22:41:52</t>
+  </si>
+  <si>
+    <t>esta semana sustento mi tesis y lo unico que quiero es que mi episodio depresivo no se presente a gran escala</t>
+  </si>
+  <si>
+    <t>2020-10-10</t>
+  </si>
+  <si>
+    <t>08:34:47</t>
+  </si>
+  <si>
+    <t>no quiero que este episodio depresivo me de tan fuerte no a dos semanas de mi sustentacion</t>
   </si>
 </sst>
 </file>
@@ -11909,11 +11939,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12216,10 +12247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1664"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:E1668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1636" workbookViewId="0">
-      <selection activeCell="O1653" sqref="O1653"/>
+    <sheetView tabSelected="1" topLeftCell="A1651" workbookViewId="0">
+      <selection activeCell="D1667" sqref="D1667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40515,6 +40547,74 @@
         <v>3944</v>
       </c>
     </row>
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1665">
+        <v>1.381380677023711E+18</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D1665" s="2" t="s">
+        <v>3946</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1666">
+        <v>1.4484909372068539E+18</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D1666" s="2" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1667">
+        <v>1.32057132127377E+18</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D1667" s="2" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1668">
+        <v>1.314922325838529E+18</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>3953</v>
+      </c>
+      <c r="D1668" s="2" t="s">
+        <v>3954</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>3152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
